--- a/SQL/PLSQL/운동기록.xlsx
+++ b/SQL/PLSQL/운동기록.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung Jae Han\Dropbox\Trivia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3ADD3C-13E5-4E10-8390-BC2D3DD7C964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E1F884-1FEE-46C4-97E2-16960D09083D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WHR" sheetId="1" r:id="rId1"/>
+    <sheet name="운동기록" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>DATETIME</t>
   </si>
@@ -34,16 +34,37 @@
     <t>WHR</t>
   </si>
   <si>
-    <t>IMPROVEMENT</t>
-  </si>
-  <si>
-    <t>CHANGE</t>
+    <t>WHR_IMPROVEMENT</t>
+  </si>
+  <si>
+    <t>WHR_CHANGE</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>OBESITY</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>SAME</t>
+  </si>
+  <si>
+    <t>OVERWEIGHT</t>
+  </si>
+  <si>
+    <t>IMPROVED</t>
+  </si>
+  <si>
+    <t>WORSENED</t>
   </si>
 </sst>
 </file>
@@ -88,14 +109,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,75 +432,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F3"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
         <v>43987</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>104.1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>104.1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
         <v>43988</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>104</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>107</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>105</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B5" s="3">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3">
+        <v>106</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>83</v>
+      </c>
+      <c r="H5" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>105</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B7" s="3">
+        <v>100.7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>105.3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B8" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>105.7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="H8" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B9" s="3">
+        <v>99</v>
+      </c>
+      <c r="C9" s="3">
+        <v>105.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>82.2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B10" s="3">
+        <v>98.1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>105.2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>43996</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>105</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B12" s="3">
+        <v>100</v>
+      </c>
+      <c r="C12" s="3">
+        <v>105</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B13" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>106.5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="H13" s="3">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B14" s="3">
+        <v>102</v>
+      </c>
+      <c r="C14" s="3">
+        <v>107.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B15" s="3">
+        <v>101</v>
+      </c>
+      <c r="C15" s="3">
+        <v>106.5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B16" s="3">
+        <v>99</v>
+      </c>
+      <c r="C16" s="3">
+        <v>105.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B17" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>106</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="H17" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B18" s="3">
+        <v>100</v>
+      </c>
+      <c r="C18" s="3">
+        <v>107</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>28.6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B19" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>107.5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>83</v>
+      </c>
+      <c r="H19" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B20" s="3">
+        <v>100</v>
+      </c>
+      <c r="C20" s="3">
+        <v>106.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
